--- a/data/trans_bre/P27E_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P27E_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -542,119 +551,91 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>11,49</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>40,16%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>11.48758391450194</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0.4015526644137303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,14; 25,35</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,1; 111,93</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.13863298749717</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>-0.04099320273034086</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>25.34541683912256</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>1.119255256688934</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>10,87</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>34,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,3; 23,05</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,01; 93,6</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>10.87418062815288</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.3426778644739216</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,45</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,39%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.298474018452887</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.08012741637536767</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,53; 10,75</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-18,71; 45,55</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>23.04716232693065</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.9359929084966849</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -662,119 +643,91 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,72%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.45419106812671</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0.08386353147336924</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-8,18; 11,78</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-21,87; 46,91</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.531924067117403</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>-0.1870943262842469</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.75228811384367</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>0.4554858242545572</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>62,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>5,52; 23,99</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>19,06; 122,83</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.197919940310038</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.03723427776046027</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>5,45</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>18,97%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.181282165783573</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2187278388679421</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-6,25; 17,81</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-17,88; 77,83</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>11.78328819302317</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.4690747696554027</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -782,37 +735,135 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>7,13</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>24,37%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>15.004516750785</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0.6266063033007756</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 11,67</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>8,44; 43,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>5.515812083508069</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>0.1905641446697811</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>23.98528336736648</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>1.228274384813574</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>5.446406387608111</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.1897249044668081</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-6.2538589916564</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.1788475006704591</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>17.81429921500716</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.7782612452589176</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>7.13211977658354</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>0.2436522608029431</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>2.68871866659917</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>0.08435604733026154</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>11.66670033455602</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>0.4374664683483791</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -820,14 +871,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P27E_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P27E_R-Edad-trans_bre.xlsx
@@ -40,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -53,6 +53,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -485,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -500,6 +528,10 @@
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -514,23 +546,47 @@
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -539,6 +595,10 @@
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -552,10 +612,22 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
+        <v>17.87863440645377</v>
+      </c>
+      <c r="D4" s="5" t="n">
         <v>11.48758391450194</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="E4" s="5" t="n">
+        <v>12.81074912696043</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.8416156825036841</v>
+      </c>
+      <c r="G4" s="6" t="n">
         <v>0.4015526644137303</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.4887847561428975</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
+        <v>6.191772194883229</v>
+      </c>
+      <c r="D5" s="5" t="n">
         <v>-1.13863298749717</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="E5" s="5" t="n">
+        <v>-0.3959459925654938</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0.2047578873277562</v>
+      </c>
+      <c r="G5" s="6" t="n">
         <v>-0.04099320273034086</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.007449621976255325</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
+        <v>29.01082354044047</v>
+      </c>
+      <c r="D6" s="5" t="n">
         <v>25.34541683912256</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="E6" s="5" t="n">
+        <v>24.58709546881518</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.945056158490559</v>
+      </c>
+      <c r="G6" s="6" t="n">
         <v>1.119255256688934</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.314183588780221</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +694,22 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
+        <v>8.574850376434259</v>
+      </c>
+      <c r="D7" s="5" t="n">
         <v>10.87418062815288</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="E7" s="5" t="n">
+        <v>19.11634807225123</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.3481895217883701</v>
+      </c>
+      <c r="G7" s="6" t="n">
         <v>0.3426778644739216</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.767687796744673</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
+        <v>-2.953914663834398</v>
+      </c>
+      <c r="D8" s="5" t="n">
         <v>-2.298474018452887</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="E8" s="5" t="n">
+        <v>5.535864880149198</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.0977789302731617</v>
+      </c>
+      <c r="G8" s="6" t="n">
         <v>-0.08012741637536767</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.1607828011617133</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
+        <v>20.22072131464909</v>
+      </c>
+      <c r="D9" s="5" t="n">
         <v>23.04716232693065</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="E9" s="5" t="n">
+        <v>29.48768493331729</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.059808911966514</v>
+      </c>
+      <c r="G9" s="6" t="n">
         <v>0.9359929084966849</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.657755079750258</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +776,22 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
+        <v>10.34665145858448</v>
+      </c>
+      <c r="D10" s="5" t="n">
         <v>2.45419106812671</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="E10" s="5" t="n">
+        <v>5.404308785898998</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.3433829456208023</v>
+      </c>
+      <c r="G10" s="6" t="n">
         <v>0.08386353147336924</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1441386552922936</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
+        <v>1.175026928089799</v>
+      </c>
+      <c r="D11" s="5" t="n">
         <v>-6.531924067117403</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="E11" s="5" t="n">
+        <v>-4.84724440879619</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.03174810303847443</v>
+      </c>
+      <c r="G11" s="6" t="n">
         <v>-0.1870943262842469</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.112065778583983</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
+        <v>18.73555499634429</v>
+      </c>
+      <c r="D12" s="5" t="n">
         <v>10.75228811384367</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="E12" s="5" t="n">
+        <v>14.56088848756806</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.7690945976012445</v>
+      </c>
+      <c r="G12" s="6" t="n">
         <v>0.4554858242545572</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.46040646959134</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +858,22 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
+        <v>10.79420830841784</v>
+      </c>
+      <c r="D13" s="5" t="n">
         <v>1.197919940310038</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="E13" s="5" t="n">
+        <v>-0.6297033545669573</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.4134742066280737</v>
+      </c>
+      <c r="G13" s="6" t="n">
         <v>0.03723427776046027</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.01716810906460706</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
+        <v>2.062338685130225</v>
+      </c>
+      <c r="D14" s="5" t="n">
         <v>-8.181282165783573</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="E14" s="5" t="n">
+        <v>-9.893608401539437</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.05513804905635392</v>
+      </c>
+      <c r="G14" s="6" t="n">
         <v>-0.2187278388679421</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.233374827514361</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
+        <v>19.04217631341371</v>
+      </c>
+      <c r="D15" s="5" t="n">
         <v>11.78328819302317</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="E15" s="5" t="n">
+        <v>8.710611086555078</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.8849820156470793</v>
+      </c>
+      <c r="G15" s="6" t="n">
         <v>0.4690747696554027</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.2838815770377052</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +940,22 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
+        <v>4.374527348498303</v>
+      </c>
+      <c r="D16" s="5" t="n">
         <v>15.004516750785</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="E16" s="5" t="n">
+        <v>4.03722488203036</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.1659836727084585</v>
+      </c>
+      <c r="G16" s="6" t="n">
         <v>0.6266063033007756</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.1408597974404733</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
+        <v>-5.046829424028118</v>
+      </c>
+      <c r="D17" s="5" t="n">
         <v>5.515812083508069</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="E17" s="5" t="n">
+        <v>-4.729412427267104</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.1599784588942504</v>
+      </c>
+      <c r="G17" s="6" t="n">
         <v>0.1905641446697811</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.1490815107425414</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
+        <v>14.31744874536249</v>
+      </c>
+      <c r="D18" s="5" t="n">
         <v>23.98528336736648</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="E18" s="5" t="n">
+        <v>13.33118216905654</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.6594922310581556</v>
+      </c>
+      <c r="G18" s="6" t="n">
         <v>1.228274384813574</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.5574196025077592</v>
       </c>
     </row>
     <row r="19">
@@ -782,10 +1022,22 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
+        <v>4.616148913825286</v>
+      </c>
+      <c r="D19" s="5" t="n">
         <v>5.446406387608111</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="E19" s="5" t="n">
+        <v>6.457315897422722</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.1811937408437281</v>
+      </c>
+      <c r="G19" s="6" t="n">
         <v>0.1897249044668081</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.2670340137589162</v>
       </c>
     </row>
     <row r="20">
@@ -796,10 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
+        <v>-5.484151723158534</v>
+      </c>
+      <c r="D20" s="5" t="n">
         <v>-6.2538589916564</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="E20" s="5" t="n">
+        <v>-3.487901030768227</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.1874886320716532</v>
+      </c>
+      <c r="G20" s="6" t="n">
         <v>-0.1788475006704591</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.1586280235435128</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
+        <v>16.23803921760533</v>
+      </c>
+      <c r="D21" s="5" t="n">
         <v>17.81429921500716</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="E21" s="5" t="n">
+        <v>17.96106320180755</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.772363885766074</v>
+      </c>
+      <c r="G21" s="6" t="n">
         <v>0.7782612452589176</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.9234033057795978</v>
       </c>
     </row>
     <row r="22">
@@ -828,10 +1104,22 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
+        <v>9.21392549242332</v>
+      </c>
+      <c r="D22" s="5" t="n">
         <v>7.13211977658354</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="E22" s="5" t="n">
+        <v>6.914108007391778</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.355382749405744</v>
+      </c>
+      <c r="G22" s="6" t="n">
         <v>0.2436522608029431</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.2279646989340577</v>
       </c>
     </row>
     <row r="23">
@@ -842,10 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
+        <v>5.455379668935864</v>
+      </c>
+      <c r="D23" s="5" t="n">
         <v>2.68871866659917</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="E23" s="5" t="n">
+        <v>2.547049651599905</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0.1975056816416723</v>
+      </c>
+      <c r="G23" s="6" t="n">
         <v>0.08435604733026154</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.07822828032012906</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
+        <v>13.83619350366259</v>
+      </c>
+      <c r="D24" s="5" t="n">
         <v>11.66670033455602</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="E24" s="5" t="n">
+        <v>10.84405434522237</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.6003079195220794</v>
+      </c>
+      <c r="G24" s="6" t="n">
         <v>0.4374664683483791</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.3826854123055609</v>
       </c>
     </row>
     <row r="25">
@@ -870,11 +1182,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A22:A24"/>
